--- a/doc/ファイル構成一覧表_E4.xlsx
+++ b/doc/ファイル構成一覧表_E4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3165C64B-A3B6-4DDD-9345-1672D0444FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CB1856-C945-4F3B-B8EB-889ADC6BC538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="131">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -207,10 +207,589 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>コーディネート新規登録画面用</t>
-    <rPh sb="7" eb="14">
+    <t>LoginErrorServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインエラー画面用</t>
+    <rPh sb="7" eb="10">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dao</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー用DAO</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CoordinateDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート用DAO</t>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Coordinate_ItemDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネートアイテム用DAO</t>
+    <rPh sb="11" eb="12">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Used_ItemDAO.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート使用アイテム用DAO</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>model</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>User1行分のデータを持つ、エンティティモデル</t>
+    <rPh sb="5" eb="6">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>servlet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CoordinateModel.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UserModel.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Coordinate_ItemModel.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Used_ItemModel.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Coordenate1行分のデータを持つ、エンティティモデル</t>
+    <rPh sb="11" eb="12">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Coordinate_Item1行分のデータを持つ、エンティティモデル</t>
+    <rPh sb="16" eb="17">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Used_Item1行分のデータを持つ、エンティティモデル</t>
+    <rPh sb="10" eb="11">
+      <t>ギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインjsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面jsp</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー新規登録jsp</t>
+    <rPh sb="4" eb="8">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート検索jsp</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム検索jsp</t>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート詳細jsp</t>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム詳細jsp</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム新規登録jsp</t>
+    <rPh sb="4" eb="8">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート新規登録jsp</t>
+    <rPh sb="7" eb="11">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート検索結果jsp</t>
+    <rPh sb="7" eb="11">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム検索結果jsp</t>
+    <rPh sb="4" eb="8">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム登録エラーjsp</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート登録エラーjsp</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewUser.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CoordinateSearch.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemSearch.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインエラーjsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー新規登録エラーjsp</t>
+    <rPh sb="4" eb="8">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー登録エラー画面用</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム登録エラー画面用</t>
+    <rPh sb="4" eb="6">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewUserErrorServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewItemErrorServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録画面用</t>
+    <rPh sb="0" eb="7">
       <t>シンキトウロクガメンヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート登録エラー画面用</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewCoordinateErrorServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CoordinateDetail.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemDetail.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewItem.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewCoordinate.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CoordinateResult.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemResult.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewItemError.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewCoordinateError.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LoginError.jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/jsp</t>
+  </si>
+  <si>
+    <t>javascript</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Common.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面js</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewUser.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー新規登録js</t>
+    <rPh sb="4" eb="8">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewItem.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewCoordinate.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム新規登録js</t>
+    <rPh sb="4" eb="8">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート新規登録js</t>
+    <rPh sb="7" eb="11">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RealTimeSort.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リアルタイムソート用js</t>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通js（天気情報、etc...）</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>テンキジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/js</t>
+  </si>
+  <si>
+    <t>WebContent/css</t>
+  </si>
+  <si>
+    <t>矢印ボタン用js</t>
+    <rPh sb="0" eb="2">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ArrowButton.js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>共通css</t>
+    <rPh sb="0" eb="2">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Common.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewUser.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Login.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Home.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CoordinateSearch.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemSearch.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CoordinateDetail.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemDetail.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewItem.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewCoordinate.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CoordinateResult.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ItemResult.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー新規登録css</t>
+    <rPh sb="4" eb="8">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログインcss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホーム画面css</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート検索css</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム検索css</t>
+    <rPh sb="4" eb="6">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート詳細css</t>
+    <rPh sb="7" eb="9">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム詳細css</t>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム新規登録css</t>
+    <rPh sb="4" eb="8">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート新規登録css</t>
+    <rPh sb="7" eb="11">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート検索結果css</t>
+    <rPh sb="7" eb="11">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム検索結果css</t>
+    <rPh sb="4" eb="8">
+      <t>ケンサクケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーcss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Error.css</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -218,7 +797,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +826,14 @@
       <sz val="11"/>
       <name val="游ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -297,7 +884,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -311,6 +898,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -628,17 +1242,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G46"/>
+  <dimension ref="B2:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58.875" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
@@ -671,7 +1285,9 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
@@ -682,13 +1298,15 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B46" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B60" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
@@ -705,7 +1323,9 @@
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
@@ -716,18 +1336,19 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
+      <c r="D6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -739,12 +1360,14 @@
       <c r="C7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E7" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G7" s="1"/>
     </row>
@@ -756,12 +1379,14 @@
       <c r="C8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -773,12 +1398,14 @@
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E9" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -790,12 +1417,14 @@
       <c r="C10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E10" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="1"/>
     </row>
@@ -807,12 +1436,14 @@
       <c r="C11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -824,12 +1455,14 @@
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G12" s="1"/>
     </row>
@@ -841,12 +1474,14 @@
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>28</v>
+      <c r="D13" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -855,43 +1490,75 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B15" s="1">
+    <row r="15" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B16" s="1">
+      <c r="C15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
+      <c r="C16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
@@ -899,10 +1566,18 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
@@ -910,10 +1585,18 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
@@ -921,10 +1604,18 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
@@ -932,10 +1623,18 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="C21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
@@ -943,10 +1642,18 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="C22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
@@ -954,10 +1661,18 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+      <c r="C23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>46</v>
+      </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
@@ -965,10 +1680,18 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="C24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
@@ -976,10 +1699,18 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="C25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>48</v>
+      </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
@@ -987,10 +1718,18 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
@@ -998,10 +1737,18 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="C27" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
@@ -1009,10 +1756,18 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="C28" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
@@ -1020,10 +1775,18 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="C29" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
@@ -1031,10 +1794,18 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="C30" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
@@ -1042,10 +1813,18 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="C31" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
@@ -1053,10 +1832,18 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="C32" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
@@ -1064,10 +1851,18 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="C33" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
@@ -1075,10 +1870,18 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="C34" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
@@ -1086,10 +1889,18 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="C35" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
@@ -1097,10 +1908,18 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="C36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
@@ -1108,10 +1927,18 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="C37" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
@@ -1119,10 +1946,18 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="C38" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
@@ -1130,10 +1965,18 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
+      <c r="C39" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
@@ -1141,10 +1984,18 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
+      <c r="C40" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
@@ -1152,10 +2003,18 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
+      <c r="C41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>99</v>
+      </c>
       <c r="G41" s="1"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
@@ -1163,10 +2022,18 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
+      <c r="C42" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="G42" s="1"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
@@ -1174,10 +2041,18 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
+      <c r="C43" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="G43" s="1"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
@@ -1185,10 +2060,18 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="C44" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="G44" s="1"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
@@ -1196,10 +2079,18 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="C45" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>96</v>
+      </c>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
@@ -1207,25 +2098,304 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="C46" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G46" s="1"/>
+    </row>
+    <row r="47" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="12">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G47" s="12"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B49" s="9">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B50" s="9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G50" s="9"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B51" s="9">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G51" s="9"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B52" s="9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G52" s="9"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B53" s="9">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B54" s="9">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B55" s="9">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B56" s="9">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B57" s="12">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G57" s="12"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B58" s="12">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G58" s="12"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B59" s="12">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G59" s="12"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
+      <c r="B60" s="12">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G60" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" display="Home.java" xr:uid="{BC1D545F-FF98-44B0-AF1E-B3BBC215B590}"/>
+    <hyperlink ref="E28" r:id="rId2" xr:uid="{B8C79C73-9B91-418C-B246-7AB870014206}"/>
+    <hyperlink ref="E51" r:id="rId3" xr:uid="{96890CBB-CE0C-4212-963C-7E07405C2D79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1400,27 +2570,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1445,9 +2603,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/ファイル構成一覧表_E4.xlsx
+++ b/doc/ファイル構成一覧表_E4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CB1856-C945-4F3B-B8EB-889ADC6BC538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73DCE29-6910-4829-AECF-D4FC9B73B132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="137">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -790,6 +790,48 @@
   </si>
   <si>
     <t>Error.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>井上</t>
+    <rPh sb="0" eb="2">
+      <t>イノウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡辺</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高橋</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>福田</t>
+    <rPh sb="0" eb="2">
+      <t>フクダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角一</t>
+    <rPh sb="0" eb="2">
+      <t>カクイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>廣渕</t>
+    <rPh sb="0" eb="2">
+      <t>ヒロフチ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1244,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="B2:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1294,7 +1336,9 @@
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="12" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
@@ -1313,7 +1357,9 @@
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="12" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
@@ -1332,7 +1378,9 @@
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="12" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
@@ -1350,7 +1398,9 @@
       <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="12" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
@@ -1369,7 +1419,9 @@
       <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="12" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
@@ -1388,7 +1440,9 @@
       <c r="F8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="12" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
@@ -1407,7 +1461,9 @@
       <c r="F9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="12" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
@@ -1426,7 +1482,9 @@
       <c r="F10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="12" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
@@ -1445,7 +1503,9 @@
       <c r="F11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="12" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
@@ -1464,7 +1524,9 @@
       <c r="F12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="1"/>
+      <c r="G12" s="12" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
@@ -1483,7 +1545,9 @@
       <c r="F13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="12" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14" s="1">
@@ -1502,7 +1566,9 @@
       <c r="F14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="12" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="15" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B15" s="6">
@@ -1521,7 +1587,9 @@
       <c r="F15" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="12" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="16" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="6">
@@ -1540,7 +1608,9 @@
       <c r="F16" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="12" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
@@ -1559,7 +1629,9 @@
       <c r="F17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="12" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
@@ -1578,7 +1650,9 @@
       <c r="F18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
@@ -1597,7 +1671,9 @@
       <c r="F19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
@@ -1616,7 +1692,9 @@
       <c r="F20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="12" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
@@ -1635,7 +1713,9 @@
       <c r="F21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
@@ -1654,7 +1734,9 @@
       <c r="F22" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
@@ -1673,7 +1755,9 @@
       <c r="F23" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="12" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
@@ -1692,7 +1776,9 @@
       <c r="F24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="12" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
@@ -1711,7 +1797,9 @@
       <c r="F25" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="12" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
@@ -1730,7 +1818,9 @@
       <c r="F26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
@@ -1749,7 +1839,9 @@
       <c r="F27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="12" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
@@ -1768,7 +1860,9 @@
       <c r="F28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="12" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
@@ -1787,7 +1881,9 @@
       <c r="F29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
@@ -1806,7 +1902,9 @@
       <c r="F30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="12" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
@@ -1825,7 +1923,9 @@
       <c r="F31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
@@ -1844,7 +1944,9 @@
       <c r="F32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="12" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
@@ -1863,7 +1965,9 @@
       <c r="F33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
@@ -1882,7 +1986,9 @@
       <c r="F34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
@@ -1901,7 +2007,9 @@
       <c r="F35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
@@ -1920,7 +2028,9 @@
       <c r="F36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="1"/>
+      <c r="G36" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
@@ -1939,7 +2049,9 @@
       <c r="F37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
@@ -1958,7 +2070,9 @@
       <c r="F38" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="12" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
@@ -1977,7 +2091,9 @@
       <c r="F39" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G39" s="1"/>
+      <c r="G39" s="12" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
@@ -1996,7 +2112,9 @@
       <c r="F40" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="12" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
@@ -2015,7 +2133,9 @@
       <c r="F41" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
@@ -2034,7 +2154,9 @@
       <c r="F42" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B43" s="1">
@@ -2053,7 +2175,9 @@
       <c r="F43" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G43" s="1"/>
+      <c r="G43" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
@@ -2072,7 +2196,9 @@
       <c r="F44" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G44" s="1"/>
+      <c r="G44" s="1" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
@@ -2091,7 +2217,9 @@
       <c r="F45" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="G45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
@@ -2110,7 +2238,9 @@
       <c r="F46" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G46" s="1"/>
+      <c r="G46" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="47" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B47" s="12">
@@ -2129,7 +2259,9 @@
       <c r="F47" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="G47" s="12"/>
+      <c r="G47" s="12" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B48" s="1">
@@ -2148,7 +2280,9 @@
       <c r="F48" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G48" s="1"/>
+      <c r="G48" s="1" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B49" s="9">
@@ -2167,7 +2301,9 @@
       <c r="F49" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="G49" s="9"/>
+      <c r="G49" s="12" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B50" s="9">
@@ -2186,7 +2322,9 @@
       <c r="F50" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="G50" s="9"/>
+      <c r="G50" s="12" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B51" s="9">
@@ -2205,7 +2343,9 @@
       <c r="F51" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="G51" s="9"/>
+      <c r="G51" s="12" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B52" s="9">
@@ -2224,7 +2364,9 @@
       <c r="F52" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="G52" s="9"/>
+      <c r="G52" s="12" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B53" s="9">
@@ -2243,7 +2385,9 @@
       <c r="F53" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G53" s="9"/>
+      <c r="G53" s="12" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B54" s="9">
@@ -2262,7 +2406,9 @@
       <c r="F54" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="G54" s="9"/>
+      <c r="G54" s="12" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B55" s="9">
@@ -2281,7 +2427,9 @@
       <c r="F55" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="G55" s="9"/>
+      <c r="G55" s="12" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B56" s="9">
@@ -2300,7 +2448,9 @@
       <c r="F56" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G56" s="9"/>
+      <c r="G56" s="12" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B57" s="12">
@@ -2319,7 +2469,9 @@
       <c r="F57" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="G57" s="12"/>
+      <c r="G57" s="12" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B58" s="12">
@@ -2338,7 +2490,9 @@
       <c r="F58" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="G58" s="12"/>
+      <c r="G58" s="12" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B59" s="12">
@@ -2357,7 +2511,9 @@
       <c r="F59" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="G59" s="12"/>
+      <c r="G59" s="12" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B60" s="12">
@@ -2376,7 +2532,9 @@
       <c r="F60" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G60" s="12"/>
+      <c r="G60" s="12" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/ファイル構成一覧表_E4.xlsx
+++ b/doc/ファイル構成一覧表_E4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73DCE29-6910-4829-AECF-D4FC9B73B132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E69F922-8213-4209-B10C-4E3288B6D343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="135">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -496,30 +496,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規登録画面用</t>
-    <rPh sb="0" eb="7">
-      <t>シンキトウロクガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コーディネート登録エラー画面用</t>
-    <rPh sb="7" eb="9">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NewCoordinateErrorServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CoordinateDetail.jsp</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -831,6 +807,13 @@
     <t>廣渕</t>
     <rPh sb="0" eb="2">
       <t>ヒロフチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート新規登録画面用</t>
+    <rPh sb="7" eb="14">
+      <t>シンキトウロクガメンヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1284,10 +1267,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="B2:G60"/>
+  <dimension ref="A2:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1299,7 +1282,7 @@
     <col min="7" max="7" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1319,7 +1302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B3" s="1">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1337,10 +1320,10 @@
         <v>7</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
         <f t="shared" ref="B4:B60" si="0">ROW()-2</f>
         <v>2</v>
@@ -1358,10 +1341,10 @@
         <v>13</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1379,11 +1362,12 @@
         <v>11</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B6" s="1">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1392,17 +1376,17 @@
       <c r="D6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>28</v>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1414,16 +1398,16 @@
         <v>41</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1435,16 +1419,16 @@
         <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1456,16 +1440,16 @@
         <v>41</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1477,16 +1461,16 @@
         <v>41</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1498,16 +1482,16 @@
         <v>41</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1519,16 +1503,16 @@
         <v>41</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1539,18 +1523,18 @@
       <c r="D13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>26</v>
+      <c r="E13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B14" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1560,17 +1544,18 @@
       <c r="D14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>74</v>
+      <c r="E14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="11"/>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1582,16 +1567,16 @@
         <v>41</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1602,17 +1587,18 @@
       <c r="D16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>71</v>
+      <c r="E16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1624,16 +1610,16 @@
         <v>41</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1645,16 +1631,16 @@
         <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1666,16 +1652,16 @@
         <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1687,16 +1673,16 @@
         <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1708,16 +1694,16 @@
         <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1729,16 +1715,16 @@
         <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1750,16 +1736,16 @@
         <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1771,16 +1757,16 @@
         <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1792,16 +1778,16 @@
         <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>48</v>
+        <v>63</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1810,19 +1796,19 @@
         <v>49</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1831,19 +1817,19 @@
         <v>49</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>64</v>
+        <v>83</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1852,19 +1838,19 @@
         <v>49</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>65</v>
+        <v>83</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1873,19 +1859,19 @@
         <v>49</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1894,19 +1880,19 @@
         <v>49</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1915,19 +1901,19 @@
         <v>49</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1936,19 +1922,19 @@
         <v>49</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1957,19 +1943,19 @@
         <v>49</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1978,19 +1964,19 @@
         <v>49</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1999,19 +1985,19 @@
         <v>49</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2020,19 +2006,19 @@
         <v>49</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2041,19 +2027,19 @@
         <v>49</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2062,19 +2048,19 @@
         <v>49</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2083,19 +2069,19 @@
         <v>49</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2104,184 +2090,186 @@
         <v>49</v>
       </c>
       <c r="D40" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="F40" s="2" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.4">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D41" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F42" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B43" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="C43" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>92</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="E44" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.4">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>94</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.4">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D46" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A47"/>
+      <c r="B47" s="12">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A48" s="11"/>
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="F46" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="12">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" s="12" t="s">
+      <c r="D48" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E48" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F47" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B48" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>105</v>
+      <c r="F48" s="13" t="s">
+        <v>115</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.4">
@@ -2290,19 +2278,19 @@
         <v>47</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.4">
@@ -2311,19 +2299,19 @@
         <v>48</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" s="13" t="s">
-        <v>108</v>
+        <v>99</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.4">
@@ -2332,19 +2320,19 @@
         <v>49</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>109</v>
+        <v>99</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.4">
@@ -2353,19 +2341,19 @@
         <v>50</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.4">
@@ -2374,19 +2362,19 @@
         <v>51</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.4">
@@ -2395,19 +2383,19 @@
         <v>52</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.4">
@@ -2416,19 +2404,19 @@
         <v>53</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G55" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.4">
@@ -2437,19 +2425,19 @@
         <v>54</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.4">
@@ -2458,19 +2446,19 @@
         <v>55</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.4">
@@ -2479,19 +2467,19 @@
         <v>56</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G58" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.4">
@@ -2500,19 +2488,19 @@
         <v>57</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F59" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G59" s="12" t="s">
         <v>128</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.4">
@@ -2521,39 +2509,30 @@
         <v>58</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="F60" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="G60" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" display="Home.java" xr:uid="{BC1D545F-FF98-44B0-AF1E-B3BBC215B590}"/>
-    <hyperlink ref="E28" r:id="rId2" xr:uid="{B8C79C73-9B91-418C-B246-7AB870014206}"/>
-    <hyperlink ref="E51" r:id="rId3" xr:uid="{96890CBB-CE0C-4212-963C-7E07405C2D79}"/>
+    <hyperlink ref="E27" r:id="rId2" xr:uid="{B8C79C73-9B91-418C-B246-7AB870014206}"/>
+    <hyperlink ref="E50" r:id="rId3" xr:uid="{96890CBB-CE0C-4212-963C-7E07405C2D79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2728,15 +2707,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2761,18 +2752,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/ファイル構成一覧表_E4.xlsx
+++ b/doc/ファイル構成一覧表_E4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E69F922-8213-4209-B10C-4E3288B6D343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2559C2DC-7FA8-487D-B14D-C9F2F129C954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="15990" windowHeight="10410" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="138">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -815,6 +815,18 @@
     <rPh sb="7" eb="14">
       <t>シンキトウロクガメンヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/WEB-INF/jsp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/js</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WebContent/css</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1267,10 +1279,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A2:G60"/>
+  <dimension ref="A2:G59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1325,7 +1337,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B60" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B59" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1607,7 +1619,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>31</v>
@@ -1691,7 +1703,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>43</v>
@@ -1771,11 +1783,11 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="6" t="s">
-        <v>8</v>
+      <c r="C25" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>63</v>
@@ -1796,7 +1808,7 @@
         <v>49</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>64</v>
@@ -2086,11 +2098,11 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>49</v>
+      <c r="C40" s="12" t="s">
+        <v>84</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>83</v>
+        <v>136</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>86</v>
@@ -2111,7 +2123,7 @@
         <v>84</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>85</v>
@@ -2235,10 +2247,10 @@
         <v>45</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E47" s="1" t="s">
         <v>103</v>
@@ -2260,7 +2272,7 @@
         <v>97</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="E48" s="13" t="s">
         <v>104</v>
@@ -2501,21 +2513,6 @@
       </c>
       <c r="G59" s="12" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B60" s="12">
-        <f t="shared" si="0"/>
-        <v>58</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G60" s="12" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2530,9 +2527,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2707,27 +2707,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2752,9 +2740,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/ファイル構成一覧表_E4.xlsx
+++ b/doc/ファイル構成一覧表_E4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2559C2DC-7FA8-487D-B14D-C9F2F129C954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC845564-02C8-4DA0-8631-F3B96DB45D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="15990" windowHeight="10410" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="140">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -478,16 +478,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテム登録エラー画面用</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>ガメンヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NewUserErrorServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -827,6 +817,24 @@
   </si>
   <si>
     <t>WebContent/css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NewCoordinateErrorServlet.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート登録エラー画面用</t>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム登録エラー画面用</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -889,7 +897,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -912,6 +920,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -921,7 +940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -962,6 +981,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1279,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A2:G59"/>
+  <dimension ref="A2:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1332,12 +1354,12 @@
         <v>7</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1">
-        <f t="shared" ref="B4:B59" si="0">ROW()-2</f>
+        <f t="shared" ref="B4:B60" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1353,7 +1375,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1374,7 +1396,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -1395,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1416,7 +1438,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1437,7 +1459,7 @@
         <v>18</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1458,7 +1480,7 @@
         <v>20</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -1479,7 +1501,7 @@
         <v>21</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1500,7 +1522,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -1521,7 +1543,7 @@
         <v>26</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -1539,10 +1561,10 @@
         <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -1563,32 +1585,32 @@
         <v>29</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="11"/>
-      <c r="B15" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>71</v>
+      <c r="E15" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="11"/>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1599,39 +1621,39 @@
       <c r="D16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="B17" s="6">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="G17" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="5"/>
       <c r="B18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1639,17 +1661,17 @@
       <c r="C18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -1664,13 +1686,13 @@
         <v>30</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -1685,13 +1707,13 @@
         <v>30</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -1703,16 +1725,16 @@
         <v>8</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -1727,13 +1749,13 @@
         <v>39</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -1748,13 +1770,13 @@
         <v>39</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -1762,20 +1784,20 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -1783,20 +1805,20 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>49</v>
+      <c r="C25" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
@@ -1804,20 +1826,20 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="9" t="s">
-        <v>135</v>
+      <c r="D26" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -1825,20 +1847,20 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>65</v>
+        <v>134</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -1850,16 +1872,16 @@
         <v>49</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>66</v>
+        <v>82</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>65</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -1871,16 +1893,16 @@
         <v>49</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -1892,16 +1914,16 @@
         <v>49</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -1913,16 +1935,16 @@
         <v>49</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
@@ -1934,16 +1956,16 @@
         <v>49</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G32" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -1955,16 +1977,16 @@
         <v>49</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -1976,16 +1998,16 @@
         <v>49</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -1997,16 +2019,16 @@
         <v>49</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -2018,16 +2040,16 @@
         <v>49</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -2039,16 +2061,16 @@
         <v>49</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -2060,16 +2082,16 @@
         <v>49</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -2081,16 +2103,16 @@
         <v>49</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -2098,20 +2120,20 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C40" s="12" t="s">
-        <v>84</v>
+      <c r="C40" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -2119,20 +2141,20 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>136</v>
+      <c r="C41" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>135</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -2140,20 +2162,20 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>88</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -2162,19 +2184,19 @@
         <v>41</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
@@ -2183,19 +2205,19 @@
         <v>42</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E44" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F44" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="G44" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
@@ -2204,19 +2226,19 @@
         <v>43</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
@@ -2225,293 +2247,314 @@
         <v>44</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D46" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48"/>
+      <c r="B48" s="12">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="G46" s="1" t="s">
+      <c r="G48" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A49" s="11"/>
+      <c r="B49" s="1">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G49" s="12" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47"/>
-      <c r="B47" s="12">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D47" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G47" s="12" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B50" s="9">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B51" s="9">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B52" s="9">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="G52" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A48" s="11"/>
-      <c r="B48" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D48" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="G48" s="1" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B53" s="9">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B54" s="9">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B55" s="9">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B56" s="9">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="G56" s="12" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B49" s="9">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B50" s="9">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B51" s="9">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E51" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B52" s="9">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E52" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F52" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B53" s="9">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B54" s="9">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D54" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F54" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B55" s="9">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D55" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E55" s="13" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B57" s="9">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="F55" s="13" t="s">
+      <c r="F57" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="G55" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B56" s="9">
-        <f t="shared" si="0"/>
-        <v>54</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E56" s="13" t="s">
+      <c r="G57" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B58" s="12">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F56" s="13" t="s">
+      <c r="F58" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="G56" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B57" s="12">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E57" s="13" t="s">
+      <c r="G58" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B59" s="12">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F57" s="13" t="s">
+      <c r="F59" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="G57" s="12" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B58" s="12">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F58" s="13" t="s">
+      <c r="G59" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B60" s="12">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F60" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G58" s="12" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.4">
-      <c r="B59" s="12">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F59" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="G59" s="12" t="s">
+      <c r="G60" s="14" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2519,20 +2562,17 @@
   <phoneticPr fontId="1"/>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" display="Home.java" xr:uid="{BC1D545F-FF98-44B0-AF1E-B3BBC215B590}"/>
-    <hyperlink ref="E27" r:id="rId2" xr:uid="{B8C79C73-9B91-418C-B246-7AB870014206}"/>
-    <hyperlink ref="E50" r:id="rId3" xr:uid="{96890CBB-CE0C-4212-963C-7E07405C2D79}"/>
+    <hyperlink ref="E28" r:id="rId2" xr:uid="{B8C79C73-9B91-418C-B246-7AB870014206}"/>
+    <hyperlink ref="E51" r:id="rId3" xr:uid="{96890CBB-CE0C-4212-963C-7E07405C2D79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2707,15 +2747,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2740,18 +2792,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/ファイル構成一覧表_E4.xlsx
+++ b/doc/ファイル構成一覧表_E4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC845564-02C8-4DA0-8631-F3B96DB45D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122A5762-00CD-4E83-9406-DB6C96FBD681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="144">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -835,6 +835,88 @@
   </si>
   <si>
     <t>アイテム登録エラー画面用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角一　広渕</t>
+    <rPh sb="0" eb="2">
+      <t>カクイチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒロブチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>渡辺　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角一　広渕</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクイチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒロブチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>角一　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>広渕</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カクイチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒロブチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>角一　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>高橋</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カクイチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タカハシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -842,7 +924,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -882,8 +964,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -896,8 +986,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -920,17 +1016,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -940,7 +1025,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -983,7 +1068,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1304,7 +1395,7 @@
   <dimension ref="A2:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1542,7 +1633,7 @@
       <c r="F12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="15" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1563,7 +1654,7 @@
       <c r="F13" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="15" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1692,7 +1783,7 @@
         <v>34</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -1713,7 +1804,7 @@
         <v>36</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -1733,8 +1824,8 @@
       <c r="F21" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="1" t="s">
-        <v>127</v>
+      <c r="G21" s="14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -2027,7 +2118,7 @@
       <c r="F35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="15" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2048,7 +2139,7 @@
       <c r="F36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="15" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2238,7 +2329,7 @@
         <v>92</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
@@ -2512,7 +2603,7 @@
       <c r="F58" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="G58" s="12" t="s">
+      <c r="G58" s="15" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2533,7 +2624,7 @@
       <c r="F59" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="G59" s="12" t="s">
+      <c r="G59" s="15" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2554,7 +2645,7 @@
       <c r="F60" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="G60" s="14" t="s">
+      <c r="G60" s="16" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2570,9 +2661,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2747,27 +2841,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2792,9 +2874,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/doc/ファイル構成一覧表_E4.xlsx
+++ b/doc/ファイル構成一覧表_E4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122A5762-00CD-4E83-9406-DB6C96FBD681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9AEB54-CE71-44D8-8AC8-82DA8BE42445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="146">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -548,13 +548,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザー新規登録js</t>
-    <rPh sb="4" eb="8">
-      <t>シンキトウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>NewItem.js</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -563,28 +556,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテム新規登録js</t>
-    <rPh sb="4" eb="8">
-      <t>シンキトウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コーディネート新規登録js</t>
-    <rPh sb="7" eb="11">
-      <t>シンキトウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RealTimeSort.js</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リアルタイムソート用js</t>
-    <rPh sb="9" eb="10">
-      <t>ヨウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -797,13 +769,6 @@
     <t>廣渕</t>
     <rPh sb="0" eb="2">
       <t>ヒロフチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コーディネート新規登録画面用</t>
-    <rPh sb="7" eb="14">
-      <t>シンキトウロクガメンヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -919,12 +884,89 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>井上　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角一　高橋</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>イノウエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクイチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タカハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角一　</t>
+    <rPh sb="0" eb="2">
+      <t>カクイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート新規登録js　</t>
+    <rPh sb="7" eb="11">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーディネート新規登録画面用　</t>
+    <rPh sb="7" eb="14">
+      <t>シンキトウロクガメンヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー新規登録js　済</t>
+    <rPh sb="4" eb="8">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイテム新規登録js　済</t>
+    <rPh sb="4" eb="8">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リアルタイムソート用js 済</t>
+    <rPh sb="9" eb="10">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -972,8 +1014,48 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -989,6 +1071,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1025,7 +1119,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1075,6 +1169,36 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1394,8 +1518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A2:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1441,11 +1565,11 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="21" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1462,11 +1586,11 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="14" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1483,11 +1607,11 @@
       <c r="E5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="14" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -1504,11 +1628,11 @@
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1525,11 +1649,11 @@
       <c r="E7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="15" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1543,14 +1667,14 @@
       <c r="D8" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>131</v>
+      <c r="G8" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1564,14 +1688,14 @@
       <c r="D9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>131</v>
+      <c r="G9" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -1588,11 +1712,11 @@
       <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="21" t="s">
         <v>21</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1609,11 +1733,11 @@
       <c r="E11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="21" t="s">
         <v>24</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -1630,11 +1754,11 @@
       <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="26" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -1648,14 +1772,14 @@
       <c r="D13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>133</v>
+      <c r="F13" s="25" t="s">
+        <v>142</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -1672,11 +1796,11 @@
       <c r="E14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="23" t="s">
         <v>29</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
@@ -1691,13 +1815,13 @@
         <v>41</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>138</v>
+        <v>132</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1715,11 +1839,11 @@
       <c r="E16" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>139</v>
+      <c r="F16" s="24" t="s">
+        <v>134</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1736,11 +1860,11 @@
       <c r="E17" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="24" t="s">
         <v>70</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -1758,11 +1882,11 @@
       <c r="E18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="18" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -1776,14 +1900,14 @@
       <c r="D19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="18" t="s">
         <v>34</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -1797,14 +1921,14 @@
       <c r="D20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="18" t="s">
         <v>36</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -1818,14 +1942,14 @@
       <c r="D21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="18" t="s">
         <v>38</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -1842,11 +1966,11 @@
       <c r="E22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="21" t="s">
         <v>40</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -1863,11 +1987,11 @@
       <c r="E23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="14" t="s">
         <v>46</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -1884,11 +2008,11 @@
       <c r="E24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="14" t="s">
         <v>47</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -1905,11 +2029,11 @@
       <c r="E25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="14" t="s">
         <v>48</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
@@ -1921,16 +2045,16 @@
         <v>49</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="21" t="s">
         <v>52</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -1942,16 +2066,16 @@
         <v>49</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="21" t="s">
         <v>50</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -1968,11 +2092,11 @@
       <c r="E28" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="22" t="s">
         <v>51</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -1989,11 +2113,11 @@
       <c r="E29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="21" t="s">
         <v>53</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -2010,11 +2134,11 @@
       <c r="E30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="21" t="s">
         <v>54</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -2028,14 +2152,14 @@
       <c r="D31" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>131</v>
+      <c r="G31" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
@@ -2049,14 +2173,14 @@
       <c r="D32" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="12" t="s">
-        <v>131</v>
+      <c r="G32" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -2073,11 +2197,11 @@
       <c r="E33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="25" t="s">
         <v>57</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -2094,11 +2218,11 @@
       <c r="E34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="25" t="s">
         <v>58</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -2115,11 +2239,11 @@
       <c r="E35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="25" t="s">
         <v>59</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -2136,11 +2260,11 @@
       <c r="E36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="25" t="s">
         <v>60</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -2157,11 +2281,11 @@
       <c r="E37" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="21" t="s">
         <v>61</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -2178,11 +2302,11 @@
       <c r="E38" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="14" t="s">
         <v>62</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -2199,11 +2323,11 @@
       <c r="E39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="14" t="s">
         <v>68</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -2220,11 +2344,11 @@
       <c r="E40" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="21" t="s">
         <v>69</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -2236,16 +2360,16 @@
         <v>83</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>95</v>
+      <c r="F41" s="21" t="s">
+        <v>91</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -2257,16 +2381,16 @@
         <v>83</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="21" t="s">
         <v>86</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -2278,16 +2402,16 @@
         <v>83</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>88</v>
+      <c r="F43" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
@@ -2299,16 +2423,16 @@
         <v>83</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>130</v>
+        <v>93</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
@@ -2320,16 +2444,16 @@
         <v>83</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="F45" s="26" t="s">
+        <v>141</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
@@ -2341,16 +2465,16 @@
         <v>83</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>145</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
@@ -2362,16 +2486,16 @@
         <v>83</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="E47" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>131</v>
+        <v>93</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
@@ -2381,19 +2505,19 @@
         <v>46</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D48" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>102</v>
-      </c>
       <c r="F48" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
@@ -2403,19 +2527,19 @@
         <v>47</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
@@ -2424,19 +2548,19 @@
         <v>48</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
@@ -2445,19 +2569,19 @@
         <v>49</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
@@ -2466,19 +2590,19 @@
         <v>50</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
@@ -2487,19 +2611,19 @@
         <v>51</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
@@ -2508,19 +2632,19 @@
         <v>52</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E54" s="13" t="s">
-        <v>108</v>
+        <v>94</v>
+      </c>
+      <c r="E54" s="19" t="s">
+        <v>104</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>131</v>
+        <v>115</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
@@ -2529,19 +2653,19 @@
         <v>53</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E55" s="13" t="s">
-        <v>109</v>
+        <v>94</v>
+      </c>
+      <c r="E55" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>131</v>
+        <v>116</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
@@ -2550,19 +2674,19 @@
         <v>54</v>
       </c>
       <c r="C56" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
@@ -2571,19 +2695,19 @@
         <v>55</v>
       </c>
       <c r="C57" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
@@ -2592,19 +2716,19 @@
         <v>56</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F58" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G58" s="15" t="s">
         <v>123</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
@@ -2613,19 +2737,19 @@
         <v>57</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
@@ -2634,19 +2758,19 @@
         <v>58</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G60" s="16" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2657,6 +2781,7 @@
     <hyperlink ref="E51" r:id="rId3" xr:uid="{96890CBB-CE0C-4212-963C-7E07405C2D79}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/doc/ファイル構成一覧表_E4.xlsx
+++ b/doc/ファイル構成一覧表_E4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOJO6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122A5762-00CD-4E83-9406-DB6C96FBD681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF911643-CD87-4DBF-8D6D-BFBDD34D70B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="146">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -563,20 +563,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アイテム新規登録js</t>
-    <rPh sb="4" eb="8">
-      <t>シンキトウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コーディネート新規登録js</t>
-    <rPh sb="7" eb="11">
-      <t>シンキトウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>RealTimeSort.js</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -797,13 +783,6 @@
     <t>廣渕</t>
     <rPh sb="0" eb="2">
       <t>ヒロフチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コーディネート新規登録画面用</t>
-    <rPh sb="7" eb="14">
-      <t>シンキトウロクガメンヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -919,12 +898,114 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>井上　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>角一　高橋</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>イノウエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクイチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>タカハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>角一　</t>
+    <rPh sb="0" eb="2">
+      <t>カクイチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>コーディネート新規登録js　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="7" eb="11">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>コーディネート新規登録画面用　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="7" eb="14">
+      <t>シンキトウロクガメンヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>アイテム新規登録js　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>済</t>
+    </r>
+    <rPh sb="4" eb="8">
+      <t>シンキトウロク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -967,6 +1048,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -1025,7 +1114,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1075,6 +1164,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1394,8 +1486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A2:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1445,7 +1537,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -1466,7 +1558,7 @@
         <v>13</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1487,7 +1579,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -1508,7 +1600,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -1529,7 +1621,7 @@
         <v>16</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1549,8 +1641,8 @@
       <c r="F8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>131</v>
+      <c r="G8" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1570,8 +1662,8 @@
       <c r="F9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>131</v>
+      <c r="G9" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -1592,7 +1684,7 @@
         <v>21</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1613,7 +1705,7 @@
         <v>24</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -1634,7 +1726,7 @@
         <v>26</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -1652,10 +1744,10 @@
         <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>127</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -1676,7 +1768,7 @@
         <v>29</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
@@ -1691,13 +1783,13 @@
         <v>41</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1716,10 +1808,10 @@
         <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.4">
@@ -1740,7 +1832,7 @@
         <v>70</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -1762,7 +1854,7 @@
         <v>32</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -1783,7 +1875,7 @@
         <v>34</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -1804,7 +1896,7 @@
         <v>36</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -1825,7 +1917,7 @@
         <v>38</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -1846,7 +1938,7 @@
         <v>40</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -1867,7 +1959,7 @@
         <v>46</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -1888,7 +1980,7 @@
         <v>47</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -1909,7 +2001,7 @@
         <v>48</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
@@ -1921,7 +2013,7 @@
         <v>49</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>63</v>
@@ -1930,7 +2022,7 @@
         <v>52</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -1942,7 +2034,7 @@
         <v>49</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>64</v>
@@ -1951,7 +2043,7 @@
         <v>50</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -1972,7 +2064,7 @@
         <v>51</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -1993,7 +2085,7 @@
         <v>53</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -2014,7 +2106,7 @@
         <v>54</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -2034,8 +2126,8 @@
       <c r="F31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G31" s="1" t="s">
-        <v>131</v>
+      <c r="G31" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
@@ -2055,8 +2147,8 @@
       <c r="F32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="12" t="s">
-        <v>131</v>
+      <c r="G32" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -2077,7 +2169,7 @@
         <v>57</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -2098,7 +2190,7 @@
         <v>58</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -2119,7 +2211,7 @@
         <v>59</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -2140,7 +2232,7 @@
         <v>60</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -2161,7 +2253,7 @@
         <v>61</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -2182,7 +2274,7 @@
         <v>62</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -2203,7 +2295,7 @@
         <v>68</v>
       </c>
       <c r="G39" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -2224,7 +2316,7 @@
         <v>69</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -2236,16 +2328,16 @@
         <v>83</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -2257,7 +2349,7 @@
         <v>83</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>84</v>
@@ -2266,7 +2358,7 @@
         <v>86</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
@@ -2278,7 +2370,7 @@
         <v>83</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>87</v>
@@ -2287,7 +2379,7 @@
         <v>88</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.4">
@@ -2299,16 +2391,16 @@
         <v>83</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>89</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>130</v>
+        <v>145</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.4">
@@ -2320,16 +2412,16 @@
         <v>83</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>90</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.4">
@@ -2341,16 +2433,16 @@
         <v>83</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.4">
@@ -2362,16 +2454,16 @@
         <v>83</v>
       </c>
       <c r="D47" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="E47" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F47" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>131</v>
+      <c r="G47" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.4">
@@ -2381,19 +2473,19 @@
         <v>46</v>
       </c>
       <c r="C48" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D48" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="E48" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.4">
@@ -2403,19 +2495,19 @@
         <v>47</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.4">
@@ -2424,19 +2516,19 @@
         <v>48</v>
       </c>
       <c r="C50" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="E50" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.4">
@@ -2445,19 +2537,19 @@
         <v>49</v>
       </c>
       <c r="C51" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D51" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="E51" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.4">
@@ -2466,19 +2558,19 @@
         <v>50</v>
       </c>
       <c r="C52" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D52" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="E52" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.4">
@@ -2487,19 +2579,19 @@
         <v>51</v>
       </c>
       <c r="C53" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="E53" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.4">
@@ -2508,19 +2600,19 @@
         <v>52</v>
       </c>
       <c r="C54" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="E54" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F54" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>131</v>
+        <v>117</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.4">
@@ -2529,19 +2621,19 @@
         <v>53</v>
       </c>
       <c r="C55" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D55" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="E55" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F55" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>131</v>
+        <v>118</v>
+      </c>
+      <c r="G55" s="17" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.4">
@@ -2550,19 +2642,19 @@
         <v>54</v>
       </c>
       <c r="C56" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D56" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D56" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="E56" s="13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F56" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.4">
@@ -2571,19 +2663,19 @@
         <v>55</v>
       </c>
       <c r="C57" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D57" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="E57" s="13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G57" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.4">
@@ -2592,19 +2684,19 @@
         <v>56</v>
       </c>
       <c r="C58" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D58" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D58" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="E58" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F58" s="13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.4">
@@ -2613,19 +2705,19 @@
         <v>57</v>
       </c>
       <c r="C59" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D59" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="E59" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F59" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.4">
@@ -2634,19 +2726,19 @@
         <v>58</v>
       </c>
       <c r="C60" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D60" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="E60" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G60" s="16" t="s">
         <v>126</v>
-      </c>
-      <c r="F60" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G60" s="16" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2661,12 +2753,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2841,15 +2930,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2874,18 +2975,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>